--- a/biology/Zoologie/Anthemiphyllia_patera_costata/Anthemiphyllia_patera_costata.xlsx
+++ b/biology/Zoologie/Anthemiphyllia_patera_costata/Anthemiphyllia_patera_costata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthemiphyllia patera costata Cairns, 1999[2], est une sous-espèce de corail appartenant à la famille des Anthemiphylliidae. Anthemiphyllia patera costata Cairns, 1999 est une sous-espèce d'Anthemiphyllia patera Pourtalès, 1878[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthemiphyllia patera costata Cairns, 1999, est une sous-espèce de corail appartenant à la famille des Anthemiphylliidae. Anthemiphyllia patera costata Cairns, 1999 est une sous-espèce d'Anthemiphyllia patera Pourtalès, 1878.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve ce corail dans l'océan Pacifique centre[2] à partir de 320 m et jusqu'à 700 m[2] de profondeur ou de 320 m et jusqu'à 707,5 m de profondeur[3]. Il vit dans des eaux dont la température est comprise entre 5,47 °C et 15,2 °C[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve ce corail dans l'océan Pacifique centre à partir de 320 m et jusqu'à 700 m de profondeur ou de 320 m et jusqu'à 707,5 m de profondeur. Il vit dans des eaux dont la température est comprise entre 5,47 °C et 15,2 °C.
 </t>
         </is>
       </c>
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
